--- a/ig/terminology/ValueSet-medcom-obs-responseGroup.xlsx
+++ b/ig/terminology/ValueSet-medcom-obs-responseGroup.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from MedCom Observati" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.0</t>
+    <t>1.7.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/ig/terminology/ValueSet-medcom-obs-responseGroup.xlsx
+++ b/ig/terminology/ValueSet-medcom-obs-responseGroup.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from MedCom Observati" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.0</t>
+    <t>1.8.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/ig/terminology/ValueSet-medcom-obs-responseGroup.xlsx
+++ b/ig/terminology/ValueSet-medcom-obs-responseGroup.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.1</t>
+    <t>2.0.0-draft</t>
   </si>
   <si>
     <t>Name</t>
@@ -99,79 +99,10 @@
     <t>BooleanType[null]</t>
   </si>
   <si>
-    <t>Concept</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>120</t>
+    <t>Codes</t>
+  </si>
+  <si>
+    <t>All codes</t>
   </si>
   <si>
     <t/>
@@ -447,7 +378,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -461,168 +392,26 @@
       <c r="A1" t="s" s="1">
         <v>28</v>
       </c>
-      <c r="B1" t="s" s="1">
-        <v>22</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="B2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
+      <c r="B4" t="s" s="2">
         <v>32</v>
-      </c>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="B9" s="2"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="B11" s="2"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="B19" s="2"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="B25" s="2"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/ig/terminology/ValueSet-medcom-obs-responseGroup.xlsx
+++ b/ig/terminology/ValueSet-medcom-obs-responseGroup.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.1</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -99,79 +99,10 @@
     <t>BooleanType[null]</t>
   </si>
   <si>
-    <t>Concept</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>120</t>
+    <t>Codes</t>
+  </si>
+  <si>
+    <t>All codes</t>
   </si>
   <si>
     <t/>
@@ -447,7 +378,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -461,168 +392,26 @@
       <c r="A1" t="s" s="1">
         <v>28</v>
       </c>
-      <c r="B1" t="s" s="1">
-        <v>22</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="B2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" t="s" s="2">
+        <v>30</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
+      <c r="B4" t="s" s="2">
         <v>32</v>
-      </c>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="B9" s="2"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="B11" s="2"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="B19" s="2"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="B25" s="2"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/ig/terminology/ValueSet-medcom-obs-responseGroup.xlsx
+++ b/ig/terminology/ValueSet-medcom-obs-responseGroup.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.8.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/ig/terminology/ValueSet-medcom-obs-responseGroup.xlsx
+++ b/ig/terminology/ValueSet-medcom-obs-responseGroup.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.1</t>
+    <t>1.8.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -48,19 +48,16 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
   </si>
   <si>
-    <t>true</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-18</t>
+    <t>2025-11-18</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -307,68 +304,66 @@
       <c r="A7" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B7" t="s" s="2">
-        <v>13</v>
-      </c>
+      <c r="B7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s" s="2">
         <v>14</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>16</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>18</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>20</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>22</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>26</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -390,28 +385,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s" s="2">
         <v>31</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
